--- a/data/unsd/countryProfiles/input/SBY_CountryProfileBuilder_new.xlsx
+++ b/data/unsd/countryProfiles/input/SBY_CountryProfileBuilder_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L.GonzalezMorales\Documents\GitHub\FIS4SDGs\data\unsd\countryProfiles\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF14DAF-C0C2-4641-85AB-0ED6F3EC5FAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED3F696-AE18-4BD3-BC2F-A7D2229D61BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" xr2:uid="{8EC80AB8-39EA-45C8-8C53-5478A0375129}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4827" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4819" uniqueCount="589">
   <si>
     <t>topicId</t>
   </si>
@@ -1407,12 +1407,6 @@
   </si>
   <si>
     <t>Net energy imports</t>
-  </si>
-  <si>
-    <t>Economic growth</t>
-  </si>
-  <si>
-    <t>Economy</t>
   </si>
   <si>
     <t>Theme</t>
@@ -2176,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B39FC3-1EB2-447A-A45F-3ED936CDD0AF}">
   <dimension ref="A1:AE195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,8 +2205,7 @@
     <col min="27" max="27" width="56.140625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="16" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -2232,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2304,10 +2297,10 @@
         <v>441</v>
       </c>
       <c r="AD1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AE1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -2327,7 +2320,7 @@
         <v>192</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G2" t="s">
         <v>193</v>
@@ -2391,12 +2384,6 @@
       </c>
       <c r="AA2" t="s">
         <v>31</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -2416,7 +2403,7 @@
         <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G3" t="s">
         <v>193</v>
@@ -2480,12 +2467,6 @@
       </c>
       <c r="AA3" t="s">
         <v>31</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -2505,7 +2486,7 @@
         <v>192</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G4" t="s">
         <v>193</v>
@@ -2569,12 +2550,6 @@
       </c>
       <c r="AA4" t="s">
         <v>31</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -2594,7 +2569,7 @@
         <v>227</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G5" t="s">
         <v>228</v>
@@ -2658,12 +2633,6 @@
       </c>
       <c r="AA5" t="s">
         <v>31</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -2683,7 +2652,7 @@
         <v>266</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G6" t="s">
         <v>267</v>
@@ -2778,7 +2747,7 @@
         <v>271</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G7" t="s">
         <v>272</v>
@@ -2873,7 +2842,7 @@
         <v>277</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G8" t="s">
         <v>278</v>
@@ -2968,7 +2937,7 @@
         <v>279</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G9" t="s">
         <v>280</v>
@@ -3063,7 +3032,7 @@
         <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -3158,7 +3127,7 @@
         <v>164</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G11" t="s">
         <v>165</v>
@@ -3230,10 +3199,10 @@
         <v>165</v>
       </c>
       <c r="AD11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -3253,7 +3222,7 @@
         <v>166</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G12" t="s">
         <v>167</v>
@@ -3325,7 +3294,7 @@
         <v>167</v>
       </c>
       <c r="AD12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE12" t="s">
         <v>162</v>
@@ -3348,7 +3317,7 @@
         <v>168</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G13" t="s">
         <v>169</v>
@@ -3420,7 +3389,7 @@
         <v>449</v>
       </c>
       <c r="AD13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE13" t="s">
         <v>46</v>
@@ -3443,7 +3412,7 @@
         <v>186</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G14" t="s">
         <v>187</v>
@@ -3515,7 +3484,7 @@
         <v>451</v>
       </c>
       <c r="AD14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE14" t="s">
         <v>46</v>
@@ -3538,7 +3507,7 @@
         <v>150</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G15" t="s">
         <v>151</v>
@@ -3607,10 +3576,10 @@
         <v>442</v>
       </c>
       <c r="AC15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AD15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE15" t="s">
         <v>46</v>
@@ -3633,7 +3602,7 @@
         <v>150</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G16" t="s">
         <v>151</v>
@@ -3702,10 +3671,10 @@
         <v>442</v>
       </c>
       <c r="AC16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AD16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE16" t="s">
         <v>46</v>
@@ -3728,7 +3697,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G17" t="s">
         <v>151</v>
@@ -3797,10 +3766,10 @@
         <v>442</v>
       </c>
       <c r="AC17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AD17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE17" t="s">
         <v>46</v>
@@ -3823,7 +3792,7 @@
         <v>390</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G18" t="s">
         <v>391</v>
@@ -3895,10 +3864,10 @@
         <v>391</v>
       </c>
       <c r="AD18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -3918,7 +3887,7 @@
         <v>188</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G19" t="s">
         <v>189</v>
@@ -3990,7 +3959,7 @@
         <v>189</v>
       </c>
       <c r="AD19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE19" t="s">
         <v>46</v>
@@ -4013,7 +3982,7 @@
         <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G20" t="s">
         <v>55</v>
@@ -4108,7 +4077,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -4183,7 +4152,7 @@
         <v>26</v>
       </c>
       <c r="AE21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -4203,7 +4172,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -4295,7 +4264,7 @@
         <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G23" t="s">
         <v>64</v>
@@ -4364,7 +4333,7 @@
         <v>442</v>
       </c>
       <c r="AC23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AD23" t="s">
         <v>26</v>
@@ -4387,7 +4356,7 @@
         <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -4462,7 +4431,7 @@
         <v>26</v>
       </c>
       <c r="AE24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -4482,7 +4451,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -4577,7 +4546,7 @@
         <v>82</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G26" t="s">
         <v>83</v>
@@ -4672,7 +4641,7 @@
         <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G27" t="s">
         <v>83</v>
@@ -4767,7 +4736,7 @@
         <v>79</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G28" t="s">
         <v>80</v>
@@ -4862,7 +4831,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G29" t="s">
         <v>48</v>
@@ -4937,7 +4906,7 @@
         <v>26</v>
       </c>
       <c r="AE29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -4957,7 +4926,7 @@
         <v>172</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G30" t="s">
         <v>173</v>
@@ -5029,10 +4998,10 @@
         <v>173</v>
       </c>
       <c r="AD30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -5052,7 +5021,7 @@
         <v>174</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G31" t="s">
         <v>175</v>
@@ -5124,10 +5093,10 @@
         <v>175</v>
       </c>
       <c r="AD31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -5147,7 +5116,7 @@
         <v>176</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G32" t="s">
         <v>177</v>
@@ -5219,10 +5188,10 @@
         <v>177</v>
       </c>
       <c r="AD32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -5242,7 +5211,7 @@
         <v>344</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G33" t="s">
         <v>345</v>
@@ -5314,10 +5283,10 @@
         <v>345</v>
       </c>
       <c r="AD33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -5337,7 +5306,7 @@
         <v>179</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G34" t="s">
         <v>180</v>
@@ -5409,7 +5378,7 @@
         <v>450</v>
       </c>
       <c r="AD34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE34" t="s">
         <v>181</v>
@@ -5432,7 +5401,7 @@
         <v>346</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G35" t="s">
         <v>347</v>
@@ -5504,10 +5473,10 @@
         <v>347</v>
       </c>
       <c r="AD35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -5527,7 +5496,7 @@
         <v>348</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G36" t="s">
         <v>349</v>
@@ -5599,10 +5568,10 @@
         <v>349</v>
       </c>
       <c r="AD36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -5622,7 +5591,7 @@
         <v>415</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G37" t="s">
         <v>416</v>
@@ -5694,7 +5663,7 @@
         <v>454</v>
       </c>
       <c r="AD37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE37" t="s">
         <v>414</v>
@@ -5717,7 +5686,7 @@
         <v>331</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G38" t="s">
         <v>332</v>
@@ -5789,7 +5758,7 @@
         <v>452</v>
       </c>
       <c r="AD38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE38" t="s">
         <v>46</v>
@@ -5812,7 +5781,7 @@
         <v>333</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G39" t="s">
         <v>334</v>
@@ -5884,7 +5853,7 @@
         <v>453</v>
       </c>
       <c r="AD39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE39" t="s">
         <v>46</v>
@@ -5907,7 +5876,7 @@
         <v>99</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G40" t="s">
         <v>100</v>
@@ -5990,7 +5959,7 @@
         <v>99</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G41" t="s">
         <v>100</v>
@@ -6073,7 +6042,7 @@
         <v>99</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G42" t="s">
         <v>100</v>
@@ -6156,7 +6125,7 @@
         <v>99</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G43" t="s">
         <v>100</v>
@@ -6239,7 +6208,7 @@
         <v>99</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G44" t="s">
         <v>100</v>
@@ -6322,7 +6291,7 @@
         <v>99</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G45" t="s">
         <v>100</v>
@@ -6405,7 +6374,7 @@
         <v>108</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -6488,7 +6457,7 @@
         <v>108</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -6571,7 +6540,7 @@
         <v>108</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -6654,7 +6623,7 @@
         <v>256</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G49" t="s">
         <v>255</v>
@@ -6737,7 +6706,7 @@
         <v>256</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G50" t="s">
         <v>255</v>
@@ -6820,7 +6789,7 @@
         <v>256</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G51" t="s">
         <v>255</v>
@@ -6903,7 +6872,7 @@
         <v>256</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G52" t="s">
         <v>255</v>
@@ -6986,7 +6955,7 @@
         <v>301</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G53" t="s">
         <v>302</v>
@@ -7069,7 +7038,7 @@
         <v>303</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G54" t="s">
         <v>304</v>
@@ -7152,7 +7121,7 @@
         <v>305</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G55" t="s">
         <v>306</v>
@@ -7235,7 +7204,7 @@
         <v>307</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G56" t="s">
         <v>308</v>
@@ -7318,7 +7287,7 @@
         <v>309</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G57" t="s">
         <v>310</v>
@@ -7401,7 +7370,7 @@
         <v>311</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G58" t="s">
         <v>312</v>
@@ -7484,7 +7453,7 @@
         <v>313</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G59" t="s">
         <v>314</v>
@@ -7567,7 +7536,7 @@
         <v>28</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -7650,7 +7619,7 @@
         <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -7733,7 +7702,7 @@
         <v>32</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -7816,7 +7785,7 @@
         <v>41</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -7899,7 +7868,7 @@
         <v>335</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G64" t="s">
         <v>336</v>
@@ -7982,7 +7951,7 @@
         <v>337</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G65" t="s">
         <v>338</v>
@@ -8065,7 +8034,7 @@
         <v>339</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G66" t="s">
         <v>340</v>
@@ -8148,7 +8117,7 @@
         <v>341</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G67" t="s">
         <v>342</v>
@@ -8231,7 +8200,7 @@
         <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G68" t="s">
         <v>161</v>
@@ -8314,7 +8283,7 @@
         <v>192</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G69" t="s">
         <v>193</v>
@@ -8397,7 +8366,7 @@
         <v>192</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G70" t="s">
         <v>193</v>
@@ -8480,7 +8449,7 @@
         <v>192</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G71" t="s">
         <v>193</v>
@@ -8563,7 +8532,7 @@
         <v>192</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G72" t="s">
         <v>193</v>
@@ -8646,7 +8615,7 @@
         <v>192</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G73" t="s">
         <v>193</v>
@@ -8729,7 +8698,7 @@
         <v>192</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G74" t="s">
         <v>193</v>
@@ -8812,7 +8781,7 @@
         <v>192</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G75" t="s">
         <v>193</v>
@@ -8895,7 +8864,7 @@
         <v>192</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
         <v>193</v>
@@ -8978,7 +8947,7 @@
         <v>192</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G77" t="s">
         <v>193</v>
@@ -9061,7 +9030,7 @@
         <v>192</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G78" t="s">
         <v>193</v>
@@ -9144,7 +9113,7 @@
         <v>192</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G79" t="s">
         <v>193</v>
@@ -9227,7 +9196,7 @@
         <v>192</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G80" t="s">
         <v>193</v>
@@ -9310,7 +9279,7 @@
         <v>230</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G81" t="s">
         <v>231</v>
@@ -9393,7 +9362,7 @@
         <v>352</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G82" t="s">
         <v>353</v>
@@ -9476,7 +9445,7 @@
         <v>355</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G83" t="s">
         <v>356</v>
@@ -9559,7 +9528,7 @@
         <v>359</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G84" t="s">
         <v>360</v>
@@ -9642,7 +9611,7 @@
         <v>362</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G85" t="s">
         <v>363</v>
@@ -9725,7 +9694,7 @@
         <v>365</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G86" t="s">
         <v>366</v>
@@ -9808,7 +9777,7 @@
         <v>368</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G87" t="s">
         <v>369</v>
@@ -9891,7 +9860,7 @@
         <v>371</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G88" t="s">
         <v>372</v>
@@ -9974,7 +9943,7 @@
         <v>374</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G89" t="s">
         <v>375</v>
@@ -10057,7 +10026,7 @@
         <v>376</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G90" t="s">
         <v>377</v>
@@ -10140,7 +10109,7 @@
         <v>379</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G91" t="s">
         <v>380</v>
@@ -10223,7 +10192,7 @@
         <v>381</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G92" t="s">
         <v>382</v>
@@ -10306,7 +10275,7 @@
         <v>383</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G93" t="s">
         <v>384</v>
@@ -10389,7 +10358,7 @@
         <v>385</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G94" t="s">
         <v>386</v>
@@ -10472,7 +10441,7 @@
         <v>387</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G95" t="s">
         <v>388</v>
@@ -10555,7 +10524,7 @@
         <v>268</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G96" t="s">
         <v>269</v>
@@ -10638,7 +10607,7 @@
         <v>273</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G97" t="s">
         <v>274</v>
@@ -10721,7 +10690,7 @@
         <v>275</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G98" t="s">
         <v>276</v>
@@ -10804,7 +10773,7 @@
         <v>281</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G99" t="s">
         <v>282</v>
@@ -10887,7 +10856,7 @@
         <v>412</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G100" t="s">
         <v>413</v>
@@ -10970,7 +10939,7 @@
         <v>417</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G101" t="s">
         <v>418</v>
@@ -11053,7 +11022,7 @@
         <v>419</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G102" t="s">
         <v>420</v>
@@ -11136,7 +11105,7 @@
         <v>422</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G103" t="s">
         <v>423</v>
@@ -11219,7 +11188,7 @@
         <v>316</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G104" t="s">
         <v>315</v>
@@ -11302,7 +11271,7 @@
         <v>316</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G105" t="s">
         <v>315</v>
@@ -11385,7 +11354,7 @@
         <v>316</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G106" t="s">
         <v>315</v>
@@ -11468,7 +11437,7 @@
         <v>316</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G107" t="s">
         <v>315</v>
@@ -11551,7 +11520,7 @@
         <v>316</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G108" t="s">
         <v>315</v>
@@ -11634,7 +11603,7 @@
         <v>316</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G109" t="s">
         <v>315</v>
@@ -11717,7 +11686,7 @@
         <v>316</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G110" t="s">
         <v>315</v>
@@ -11800,7 +11769,7 @@
         <v>322</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G111" t="s">
         <v>323</v>
@@ -11883,7 +11852,7 @@
         <v>324</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G112" t="s">
         <v>325</v>
@@ -11966,7 +11935,7 @@
         <v>326</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G113" t="s">
         <v>327</v>
@@ -12049,7 +12018,7 @@
         <v>182</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G114" t="s">
         <v>183</v>
@@ -12132,7 +12101,7 @@
         <v>396</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G115" t="s">
         <v>397</v>
@@ -12215,7 +12184,7 @@
         <v>396</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G116" t="s">
         <v>397</v>
@@ -12298,7 +12267,7 @@
         <v>396</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G117" t="s">
         <v>397</v>
@@ -12381,7 +12350,7 @@
         <v>402</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G118" t="s">
         <v>403</v>
@@ -12464,7 +12433,7 @@
         <v>54</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G119" t="s">
         <v>55</v>
@@ -12547,7 +12516,7 @@
         <v>54</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G120" t="s">
         <v>55</v>
@@ -12630,7 +12599,7 @@
         <v>57</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G121" t="s">
         <v>58</v>
@@ -12713,7 +12682,7 @@
         <v>59</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G122" t="s">
         <v>60</v>
@@ -12796,7 +12765,7 @@
         <v>61</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G123" t="s">
         <v>62</v>
@@ -12879,7 +12848,7 @@
         <v>66</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G124" t="s">
         <v>67</v>
@@ -12962,7 +12931,7 @@
         <v>68</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G125" t="s">
         <v>69</v>
@@ -13045,7 +13014,7 @@
         <v>71</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G126" t="s">
         <v>72</v>
@@ -13128,7 +13097,7 @@
         <v>73</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G127" t="s">
         <v>74</v>
@@ -13211,7 +13180,7 @@
         <v>73</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G128" t="s">
         <v>74</v>
@@ -13294,7 +13263,7 @@
         <v>284</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G129" t="s">
         <v>285</v>
@@ -13377,7 +13346,7 @@
         <v>284</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G130" t="s">
         <v>285</v>
@@ -13460,7 +13429,7 @@
         <v>284</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G131" t="s">
         <v>285</v>
@@ -13543,7 +13512,7 @@
         <v>286</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G132" t="s">
         <v>287</v>
@@ -13626,7 +13595,7 @@
         <v>286</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G133" t="s">
         <v>287</v>
@@ -13709,7 +13678,7 @@
         <v>286</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G134" t="s">
         <v>287</v>
@@ -13792,7 +13761,7 @@
         <v>288</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G135" t="s">
         <v>289</v>
@@ -13875,7 +13844,7 @@
         <v>288</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G136" t="s">
         <v>289</v>
@@ -13958,7 +13927,7 @@
         <v>288</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G137" t="s">
         <v>289</v>
@@ -14041,7 +14010,7 @@
         <v>290</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G138" t="s">
         <v>291</v>
@@ -14124,7 +14093,7 @@
         <v>290</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G139" t="s">
         <v>291</v>
@@ -14207,7 +14176,7 @@
         <v>290</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G140" t="s">
         <v>291</v>
@@ -14290,7 +14259,7 @@
         <v>88</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G141" t="s">
         <v>89</v>
@@ -14373,7 +14342,7 @@
         <v>90</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G142" t="s">
         <v>91</v>
@@ -14456,7 +14425,7 @@
         <v>90</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G143" t="s">
         <v>91</v>
@@ -14539,7 +14508,7 @@
         <v>92</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G144" t="s">
         <v>93</v>
@@ -14622,7 +14591,7 @@
         <v>186</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G145" t="s">
         <v>187</v>
@@ -14705,7 +14674,7 @@
         <v>186</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G146" t="s">
         <v>187</v>
@@ -14788,7 +14757,7 @@
         <v>188</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G147" t="s">
         <v>189</v>
@@ -14871,7 +14840,7 @@
         <v>188</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G148" t="s">
         <v>189</v>
@@ -14954,7 +14923,7 @@
         <v>233</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G149" t="s">
         <v>234</v>
@@ -15037,7 +15006,7 @@
         <v>235</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G150" t="s">
         <v>236</v>
@@ -15120,7 +15089,7 @@
         <v>406</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G151" t="s">
         <v>407</v>
@@ -15203,7 +15172,7 @@
         <v>408</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G152" t="s">
         <v>409</v>
@@ -15286,7 +15255,7 @@
         <v>239</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G153" t="s">
         <v>240</v>
@@ -15369,7 +15338,7 @@
         <v>242</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G154" t="s">
         <v>243</v>
@@ -15452,7 +15421,7 @@
         <v>244</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G155" t="s">
         <v>245</v>
@@ -15535,7 +15504,7 @@
         <v>246</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G156" t="s">
         <v>247</v>
@@ -15618,7 +15587,7 @@
         <v>246</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G157" t="s">
         <v>247</v>
@@ -15701,7 +15670,7 @@
         <v>248</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G158" t="s">
         <v>249</v>
@@ -15784,7 +15753,7 @@
         <v>250</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G159" t="s">
         <v>251</v>
@@ -15867,7 +15836,7 @@
         <v>252</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G160" t="s">
         <v>253</v>
@@ -15950,7 +15919,7 @@
         <v>141</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G161" t="s">
         <v>142</v>
@@ -16193,7 +16162,7 @@
         <v>112</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G164" t="s">
         <v>113</v>
@@ -16276,7 +16245,7 @@
         <v>114</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G165" t="s">
         <v>115</v>
@@ -16359,7 +16328,7 @@
         <v>116</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G166" t="s">
         <v>117</v>
@@ -16442,7 +16411,7 @@
         <v>118</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G167" t="s">
         <v>119</v>
@@ -16525,7 +16494,7 @@
         <v>118</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G168" t="s">
         <v>119</v>
@@ -16608,7 +16577,7 @@
         <v>118</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G169" t="s">
         <v>119</v>
@@ -16691,7 +16660,7 @@
         <v>118</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G170" t="s">
         <v>119</v>
@@ -16774,7 +16743,7 @@
         <v>118</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G171" t="s">
         <v>119</v>
@@ -16857,7 +16826,7 @@
         <v>123</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G172" t="s">
         <v>124</v>
@@ -16940,7 +16909,7 @@
         <v>133</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G173" t="s">
         <v>134</v>
@@ -17023,7 +16992,7 @@
         <v>133</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G174" t="s">
         <v>134</v>
@@ -17106,7 +17075,7 @@
         <v>133</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G175" t="s">
         <v>134</v>
@@ -17189,7 +17158,7 @@
         <v>392</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G176" t="s">
         <v>393</v>
@@ -17272,7 +17241,7 @@
         <v>426</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G177" t="s">
         <v>427</v>
@@ -17355,7 +17324,7 @@
         <v>428</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G178" t="s">
         <v>429</v>
@@ -17438,7 +17407,7 @@
         <v>137</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G179" t="s">
         <v>138</v>
@@ -17521,7 +17490,7 @@
         <v>126</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G180" t="s">
         <v>127</v>
@@ -17604,7 +17573,7 @@
         <v>126</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G181" t="s">
         <v>127</v>
@@ -17687,7 +17656,7 @@
         <v>126</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G182" t="s">
         <v>127</v>
@@ -17770,7 +17739,7 @@
         <v>129</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G183" t="s">
         <v>130</v>
@@ -17853,7 +17822,7 @@
         <v>129</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G184" t="s">
         <v>130</v>
@@ -17936,7 +17905,7 @@
         <v>129</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G185" t="s">
         <v>130</v>
@@ -18019,7 +17988,7 @@
         <v>431</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G186" t="s">
         <v>432</v>
@@ -18102,7 +18071,7 @@
         <v>431</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G187" t="s">
         <v>432</v>
@@ -18185,7 +18154,7 @@
         <v>431</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G188" t="s">
         <v>432</v>
@@ -18268,7 +18237,7 @@
         <v>431</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G189" t="s">
         <v>432</v>
@@ -18351,7 +18320,7 @@
         <v>437</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G190" t="s">
         <v>438</v>
@@ -18434,7 +18403,7 @@
         <v>437</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G191" t="s">
         <v>438</v>
@@ -18517,7 +18486,7 @@
         <v>437</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G192" t="s">
         <v>438</v>
@@ -18600,7 +18569,7 @@
         <v>437</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G193" t="s">
         <v>438</v>
@@ -18683,7 +18652,7 @@
         <v>293</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G194" t="s">
         <v>294</v>
@@ -18766,7 +18735,7 @@
         <v>296</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G195" t="s">
         <v>297</v>
